--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:16:03+00:00</t>
+    <t>2023-02-13T12:20:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:20:57+00:00</t>
+    <t>2023-02-13T12:39:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T12:39:54+00:00</t>
+    <t>2023-02-13T19:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4325,10 +4325,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:08:35+00:00</t>
+    <t>2023-02-13T19:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:10:14+00:00</t>
+    <t>2023-02-13T19:11:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T19:11:03+00:00</t>
+    <t>2023-02-14T09:42:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -784,7 +784,7 @@
     <t>The type can be very important in processing as this could be used in determining if the EpisodeOfCare is relevant to specific government reporting, or other types of classifications.</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-enrollment-type</t>
+    <t>http://openhie.org/fhir/hiv-program-monitoring/ValueSet/vs-patient-enrollment-type</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1302,7 +1302,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.77734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.9609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/HIV-EpisodeOfCare-Resource-development-FIG-19/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-14T09:42:47+00:00</t>
+    <t>2023-02-14T09:43:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
